--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdfel\OneDrive\Documentos\UiPath\ProjetoTesteFelipe\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A970FFE-162E-4055-AAA1-E812DCD5F7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EECCA5-B2A1-49C3-9000-2744A6503F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -166,12 +166,6 @@
   </si>
   <si>
     <t>www.nytimes.com</t>
-  </si>
-  <si>
-    <t>openai_key</t>
-  </si>
-  <si>
-    <t>Api key para api chatgpt</t>
   </si>
   <si>
     <t>Valor_Busca</t>
@@ -255,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -267,7 +261,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,7 +578,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -664,15 +657,7 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1862,45 +1847,45 @@
     <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2931,7 +2916,6 @@
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="6"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdfel\OneDrive\Documentos\UiPath\ProjetoTesteFelipe\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EECCA5-B2A1-49C3-9000-2744A6503F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26966EC1-C8C3-4D50-9A00-9D6AA46B1AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,7 +578,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="A7:C7"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1661,7 +1661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
